--- a/VT_REG1_TRA_V12.xlsx
+++ b/VT_REG1_TRA_V12.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\ETSAP_DemoS_VFE\DemoS_Adv_Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\testingmodels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F4A442-E3DB-4929-9374-7C1319F19657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="45" windowWidth="9600" windowHeight="10950" tabRatio="901"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -26,17 +27,27 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,14 +65,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -360,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -478,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -541,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -789,14 +800,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -910,7 +921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1" shapeId="0">
+    <comment ref="T3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -936,7 +947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1009,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1095,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U10" authorId="2" shapeId="0">
+    <comment ref="U10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V10" authorId="1" shapeId="0">
+    <comment ref="V10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1213,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W10" authorId="2" shapeId="0">
+    <comment ref="W10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1276,7 +1287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="2" shapeId="0">
+    <comment ref="O11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2066,14 +2077,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
-    <numFmt numFmtId="179" formatCode="General_)"/>
-    <numFmt numFmtId="187" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2103,32 +2114,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2599,42 +2584,42 @@
   </borders>
   <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="149">
@@ -2656,33 +2641,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="13"/>
@@ -2699,83 +2684,83 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="13" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="29" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="13" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="23" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="21" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="17" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="8" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2786,32 +2771,32 @@
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2819,7 +2804,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2828,34 +2813,34 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="10" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="10" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="1" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="1" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="11" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="11" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="10" borderId="1" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="10" borderId="16" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="10" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="10" borderId="14" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="16" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="14" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="29" fillId="13" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="13" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2870,47 +2855,47 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="13" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="13" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="26" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="26" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="17"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="17" applyNumberFormat="1"/>
   </cellXfs>
@@ -2920,39 +2905,39 @@
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="6"/>
-    <cellStyle name="Comma 2 2" xfId="7"/>
-    <cellStyle name="Comma 2 3" xfId="8"/>
+    <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Good" xfId="9" builtinId="26"/>
     <cellStyle name="Input" xfId="10" builtinId="20"/>
-    <cellStyle name="Migliaia_tab emissioni" xfId="11"/>
+    <cellStyle name="Migliaia_tab emissioni" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Neutral" xfId="12" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="13"/>
-    <cellStyle name="Normal 2" xfId="14"/>
-    <cellStyle name="Normal 2 3" xfId="15"/>
-    <cellStyle name="Normal 4" xfId="16"/>
-    <cellStyle name="Normal 4 2" xfId="17"/>
-    <cellStyle name="Normal 8" xfId="18"/>
-    <cellStyle name="Normal 9 2" xfId="19"/>
-    <cellStyle name="Normale_B2020" xfId="20"/>
+    <cellStyle name="Normal 10" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 8" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normale_B2020" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Percent" xfId="21" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="22"/>
-    <cellStyle name="Percent 3" xfId="23"/>
-    <cellStyle name="Percent 3 2" xfId="24"/>
-    <cellStyle name="Percent 3 3" xfId="25"/>
-    <cellStyle name="Percent 3 4" xfId="26"/>
-    <cellStyle name="Percent 4" xfId="27"/>
-    <cellStyle name="Percent 4 2" xfId="28"/>
-    <cellStyle name="Percent 4 3" xfId="29"/>
-    <cellStyle name="Percent 4 4" xfId="30"/>
-    <cellStyle name="Percent 5" xfId="31"/>
-    <cellStyle name="Percent 5 2" xfId="32"/>
-    <cellStyle name="Percent 5 3" xfId="33"/>
-    <cellStyle name="Percent 6" xfId="34"/>
-    <cellStyle name="Percent 7" xfId="35"/>
-    <cellStyle name="Percent 8" xfId="36"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="37"/>
+    <cellStyle name="Percent 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 3 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 3 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 3 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 4" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Percent 4 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Percent 4 4" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Percent 5" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Percent 5 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Percent 5 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Percent 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Percent 7" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Percent 8" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2984,7 +2969,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3074,7 +3065,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57201" name="Picture 6"/>
+        <xdr:cNvPr id="57201" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071DF0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3142,7 +3139,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57202" name="Picture 8"/>
+        <xdr:cNvPr id="57202" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072DF0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3210,7 +3213,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57203" name="Picture 4"/>
+        <xdr:cNvPr id="57203" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073DF0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3278,7 +3287,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57204" name="Picture 5"/>
+        <xdr:cNvPr id="57204" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000074DF0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3351,7 +3366,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3504,7 +3525,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3705,7 +3732,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3807,7 +3840,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4039,6 +4078,11 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
+        <row r="5">
+          <cell r="D5">
+            <v>5263.9327000000003</v>
+          </cell>
+        </row>
         <row r="16">
           <cell r="D16">
             <v>231.76075</v>
@@ -4824,14 +4868,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:U9"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5986,7 +6030,7 @@
       <c r="M25" s="104"/>
       <c r="N25" s="104"/>
       <c r="O25" s="107">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="P25" s="104"/>
       <c r="Q25" s="104"/>
@@ -6035,7 +6079,7 @@
       <c r="N26" s="106"/>
       <c r="O26" s="109">
         <f>1-O25</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="P26" s="106"/>
       <c r="Q26" s="106"/>
@@ -6108,7 +6152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:G5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -6143,7 +6187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7054,7 +7098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7745,7 +7789,7 @@
       </c>
       <c r="E17" s="73">
         <f>('EB1'!O$9*'EB1'!$O$25*F17/(K17*G17))*1.01</f>
-        <v>3181.5</v>
+        <v>1060.5</v>
       </c>
       <c r="F17" s="78">
         <v>0.4</v>
@@ -7767,7 +7811,7 @@
       </c>
       <c r="M17" s="39">
         <f>E17*G17*K17*H17</f>
-        <v>45.734062499999993</v>
+        <v>15.244687500000001</v>
       </c>
       <c r="O17" s="136"/>
       <c r="P17" s="136"/>
@@ -8118,7 +8162,7 @@
       </c>
       <c r="E23" s="73">
         <f>('EB1'!O$9*'EB1'!$O$26*F23/(K23*G23))*1.01</f>
-        <v>228.67031249999999</v>
+        <v>686.01093749999995</v>
       </c>
       <c r="F23" s="78">
         <v>0.15</v>
@@ -8140,7 +8184,7 @@
       </c>
       <c r="M23" s="39">
         <f>E23*G23*K23*H23</f>
-        <v>68.60109374999999</v>
+        <v>205.80328125</v>
       </c>
       <c r="O23" s="136"/>
       <c r="P23" s="136"/>
@@ -8304,7 +8348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8415,7 +8459,7 @@
       </c>
       <c r="E9" s="79">
         <f>SUM(DemTechs_TRA!M13:M18)</f>
-        <v>3100.5969515937504</v>
+        <v>3070.1075765937503</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
@@ -8431,7 +8475,7 @@
       </c>
       <c r="E10" s="79">
         <f>SUM(DemTechs_TRA!M19:M24)</f>
-        <v>1750.8371336249998</v>
+        <v>1888.0393211249996</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
@@ -8498,7 +8542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
